--- a/data/future_best_preds.xlsx
+++ b/data/future_best_preds.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
@@ -494,44 +494,44 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19159338.28120331</v>
+        <v>19294297.11411567</v>
       </c>
       <c r="C2" t="n">
-        <v>20847990.79664863</v>
+        <v>19348513.62994544</v>
       </c>
       <c r="D2" t="n">
-        <v>21390358.25528205</v>
+        <v>19399228.18162993</v>
       </c>
       <c r="E2" t="n">
-        <v>21779014.37155115</v>
+        <v>19446702.10229456</v>
       </c>
       <c r="F2" t="n">
-        <v>20250630.90250431</v>
+        <v>19491175.54833038</v>
       </c>
       <c r="G2" t="n">
-        <v>21939283.41794962</v>
+        <v>19532869.22782452</v>
       </c>
       <c r="H2" t="n">
-        <v>22481650.87658304</v>
+        <v>19571986.00504296</v>
       </c>
       <c r="I2" t="n">
-        <v>22870306.99285215</v>
+        <v>19608712.3850176</v>
       </c>
       <c r="J2" t="n">
-        <v>21341923.5238053</v>
+        <v>19643219.88340259</v>
       </c>
       <c r="K2" t="n">
-        <v>23030576.03925062</v>
+        <v>19675666.28758842</v>
       </c>
       <c r="L2" t="n">
-        <v>23572943.49788404</v>
+        <v>19706196.81541502</v>
       </c>
       <c r="M2" t="n">
-        <v>23961599.61415314</v>
+        <v>19734945.17809308</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>прогнозы_GP_Neural2</t>
         </is>
       </c>
     </row>
@@ -542,3596 +542,2348 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15315078.53378392</v>
+        <v>13509398.03463655</v>
       </c>
       <c r="C3" t="n">
-        <v>16122680.59779154</v>
+        <v>16770095.91089415</v>
       </c>
       <c r="D3" t="n">
-        <v>16915749.77670456</v>
+        <v>14362039.36278901</v>
       </c>
       <c r="E3" t="n">
-        <v>17690945.35857975</v>
+        <v>15714566.97571854</v>
       </c>
       <c r="F3" t="n">
-        <v>18451964.61638067</v>
+        <v>14724069.01749665</v>
       </c>
       <c r="G3" t="n">
-        <v>19196785.02024714</v>
+        <v>14304148.98203796</v>
       </c>
       <c r="H3" t="n">
-        <v>19928329.05160706</v>
+        <v>15682532.01943521</v>
       </c>
       <c r="I3" t="n">
-        <v>20643230.85066543</v>
+        <v>16183425.52543284</v>
       </c>
       <c r="J3" t="n">
-        <v>21345163.0458433</v>
+        <v>16640445.41044704</v>
       </c>
       <c r="K3" t="n">
-        <v>22032078.95597404</v>
+        <v>17007144.46095074</v>
       </c>
       <c r="L3" t="n">
-        <v>22706877.39454351</v>
+        <v>18342955.74721057</v>
       </c>
       <c r="M3" t="n">
-        <v>23366169.30750503</v>
+        <v>17159570.38416561</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA4dt</t>
+          <t>Прогнозы_Holt-Winters_AdAd</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22563844.08056659</v>
+        <v>61314624.28710142</v>
       </c>
       <c r="C4" t="n">
-        <v>26739960.37728151</v>
+        <v>69375107.54582712</v>
       </c>
       <c r="D4" t="n">
-        <v>25557177.59661204</v>
+        <v>78338742.80114332</v>
       </c>
       <c r="E4" t="n">
-        <v>29173469.06945931</v>
+        <v>86834633.85164112</v>
       </c>
       <c r="F4" t="n">
-        <v>30246036.52122013</v>
+        <v>96209434.51092955</v>
       </c>
       <c r="G4" t="n">
-        <v>35208414.44571558</v>
+        <v>105110618.0020458</v>
       </c>
       <c r="H4" t="n">
-        <v>39388785.09851892</v>
+        <v>115727241.5134658</v>
       </c>
       <c r="I4" t="n">
-        <v>47449924.07676359</v>
+        <v>125429964.5268258</v>
       </c>
       <c r="J4" t="n">
-        <v>46140920.87657228</v>
+        <v>134707830.7421932</v>
       </c>
       <c r="K4" t="n">
-        <v>59408393.92866493</v>
+        <v>143736385.9646578</v>
       </c>
       <c r="L4" t="n">
-        <v>57271183.50597881</v>
+        <v>153061391.1936745</v>
       </c>
       <c r="M4" t="n">
-        <v>66561119.36177666</v>
+        <v>161547343.1338927</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_122</t>
+          <t>Прогнозы_Holt-Winters_AdAd</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23151429.61623385</v>
+        <v>30691118.72312648</v>
       </c>
       <c r="C5" t="n">
-        <v>25392520.44582107</v>
+        <v>26556958.82999169</v>
       </c>
       <c r="D5" t="n">
-        <v>28037964.6473022</v>
+        <v>31107378.66204899</v>
       </c>
       <c r="E5" t="n">
-        <v>30796316.69289969</v>
+        <v>32430301.79068385</v>
       </c>
       <c r="F5" t="n">
-        <v>35416953.10488448</v>
+        <v>35650052.4459774</v>
       </c>
       <c r="G5" t="n">
-        <v>42915089.9109937</v>
+        <v>30070561.3751894</v>
       </c>
       <c r="H5" t="n">
-        <v>49467316.14328603</v>
+        <v>33388499.81257765</v>
       </c>
       <c r="I5" t="n">
-        <v>62537167.11636443</v>
+        <v>36647883.1245179</v>
       </c>
       <c r="J5" t="n">
-        <v>84690416.86008319</v>
+        <v>35872061.13499068</v>
       </c>
       <c r="K5" t="n">
-        <v>85415117.20532836</v>
+        <v>41835555.08743876</v>
       </c>
       <c r="L5" t="n">
-        <v>88450548.02319135</v>
+        <v>75077943.05127966</v>
       </c>
       <c r="M5" t="n">
-        <v>111430543.9378563</v>
+        <v>9633318.566753304</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_122</t>
+          <t>Прогнозы_Holt-Winters_AdditMul</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6074268.189976629</v>
+        <v>540696.1150520635</v>
       </c>
       <c r="C6" t="n">
-        <v>11561131.70581409</v>
+        <v>457922.8763859899</v>
       </c>
       <c r="D6" t="n">
-        <v>8949185.854503395</v>
+        <v>387591.5684211417</v>
       </c>
       <c r="E6" t="n">
-        <v>9984105.631167762</v>
+        <v>327872.692392693</v>
       </c>
       <c r="F6" t="n">
-        <v>12932184.20557333</v>
+        <v>277198.6404117696</v>
       </c>
       <c r="G6" t="n">
-        <v>12448564.27776893</v>
+        <v>234227.4296119715</v>
       </c>
       <c r="H6" t="n">
-        <v>11843456.15127435</v>
+        <v>197811.254692297</v>
       </c>
       <c r="I6" t="n">
-        <v>12571898.80730882</v>
+        <v>166969.2506379304</v>
       </c>
       <c r="J6" t="n">
-        <v>12432448.59432177</v>
+        <v>140863.9297460421</v>
       </c>
       <c r="K6" t="n">
-        <v>12184520.24622604</v>
+        <v>118780.8212382133</v>
       </c>
       <c r="L6" t="n">
-        <v>14210170.21381994</v>
+        <v>100110.8986695255</v>
       </c>
       <c r="M6" t="n">
-        <v>24811346.21214512</v>
+        <v>84335.43086016588</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_211</t>
+          <t>Прогнозы_GP_Matern</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2364979.281600065</v>
+        <v>13198702.52575501</v>
       </c>
       <c r="C7" t="n">
-        <v>3532026.295212575</v>
+        <v>13385364.93507517</v>
       </c>
       <c r="D7" t="n">
-        <v>3503582.946695564</v>
+        <v>13825393.43491967</v>
       </c>
       <c r="E7" t="n">
-        <v>3792438.670110472</v>
+        <v>13776631.58731467</v>
       </c>
       <c r="F7" t="n">
-        <v>2559153.019457345</v>
+        <v>14312021.24022203</v>
       </c>
       <c r="G7" t="n">
-        <v>3726200.033069856</v>
+        <v>14498683.64954218</v>
       </c>
       <c r="H7" t="n">
-        <v>3697756.684552845</v>
+        <v>14938712.14938668</v>
       </c>
       <c r="I7" t="n">
-        <v>3986612.407967752</v>
+        <v>14889950.30178168</v>
       </c>
       <c r="J7" t="n">
-        <v>2753326.757314626</v>
+        <v>15425339.95468904</v>
       </c>
       <c r="K7" t="n">
-        <v>3920373.770927136</v>
+        <v>15612002.3640092</v>
       </c>
       <c r="L7" t="n">
-        <v>3891930.422410125</v>
+        <v>16052030.86385369</v>
       </c>
       <c r="M7" t="n">
-        <v>4180786.145825032</v>
+        <v>16003269.01624869</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA4</t>
+          <t>Прогнозы_ETS_CA4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1635058.75598004</v>
+        <v>20008612.4609152</v>
       </c>
       <c r="C8" t="n">
-        <v>1904697.86086526</v>
+        <v>20248235.68192905</v>
       </c>
       <c r="D8" t="n">
-        <v>2184629.732515698</v>
+        <v>20491021.26767743</v>
       </c>
       <c r="E8" t="n">
-        <v>1916400.476513159</v>
+        <v>20736873.81895429</v>
       </c>
       <c r="F8" t="n">
-        <v>1800933.397401304</v>
+        <v>20985700.81446589</v>
       </c>
       <c r="G8" t="n">
-        <v>2070572.502286524</v>
+        <v>21237412.52401271</v>
       </c>
       <c r="H8" t="n">
-        <v>2350504.373936961</v>
+        <v>21491921.92429046</v>
       </c>
       <c r="I8" t="n">
-        <v>2082275.117934422</v>
+        <v>21749144.6172309</v>
       </c>
       <c r="J8" t="n">
-        <v>1966808.038822566</v>
+        <v>22008998.75080632</v>
       </c>
       <c r="K8" t="n">
-        <v>2236447.143707786</v>
+        <v>22271404.94222299</v>
       </c>
       <c r="L8" t="n">
-        <v>2516379.015358224</v>
+        <v>22536286.20343167</v>
       </c>
       <c r="M8" t="n">
-        <v>2248149.759355684</v>
+        <v>22803567.86888522</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA4</t>
+          <t>Прогнозы_GP_Combo_3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12033095.2409526</v>
+        <v>28219217.6157251</v>
       </c>
       <c r="C9" t="n">
-        <v>17366721.7087092</v>
+        <v>31604452.76706308</v>
       </c>
       <c r="D9" t="n">
-        <v>22716888.71674217</v>
+        <v>32643026.00572301</v>
       </c>
       <c r="E9" t="n">
-        <v>26905594.66290713</v>
+        <v>31745002.60745715</v>
       </c>
       <c r="F9" t="n">
-        <v>33137246.48887686</v>
+        <v>32787251.23660734</v>
       </c>
       <c r="G9" t="n">
-        <v>32490520.93382628</v>
+        <v>31960312.3809677</v>
       </c>
       <c r="H9" t="n">
-        <v>36719534.58831844</v>
+        <v>32722874.58531209</v>
       </c>
       <c r="I9" t="n">
-        <v>38767776.15359232</v>
+        <v>31604709.87601446</v>
       </c>
       <c r="J9" t="n">
-        <v>40323125.10436634</v>
+        <v>31844940.86365378</v>
       </c>
       <c r="K9" t="n">
-        <v>50553043.71704549</v>
+        <v>32314183.93256107</v>
       </c>
       <c r="L9" t="n">
-        <v>54158459.64078706</v>
+        <v>40970552.45388846</v>
       </c>
       <c r="M9" t="n">
-        <v>65461965.41487923</v>
+        <v>31079154.9205984</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_122</t>
+          <t>Прогнозы_Holt-Winters_AdAd</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3713863.24875626</v>
+        <v>16354699.06280076</v>
       </c>
       <c r="C10" t="n">
-        <v>9788728.768197933</v>
+        <v>18502132.02645102</v>
       </c>
       <c r="D10" t="n">
-        <v>13942226.48056082</v>
+        <v>22616462.29272217</v>
       </c>
       <c r="E10" t="n">
-        <v>16973381.21564133</v>
+        <v>25049571.60607328</v>
       </c>
       <c r="F10" t="n">
-        <v>16138329.92156549</v>
+        <v>25596311.6211697</v>
       </c>
       <c r="G10" t="n">
-        <v>14029920.77706175</v>
+        <v>32171317.13284253</v>
       </c>
       <c r="H10" t="n">
-        <v>13728655.57762929</v>
+        <v>30560598.06628216</v>
       </c>
       <c r="I10" t="n">
-        <v>14906424.00864451</v>
+        <v>27013209.16558805</v>
       </c>
       <c r="J10" t="n">
-        <v>16462461.71619848</v>
+        <v>27677327.41160193</v>
       </c>
       <c r="K10" t="n">
-        <v>13454109.63389879</v>
+        <v>29376165.59434965</v>
       </c>
       <c r="L10" t="n">
-        <v>21734301.03045346</v>
+        <v>30500176.09887176</v>
       </c>
       <c r="M10" t="n">
-        <v>46909214.51018727</v>
+        <v>25811165.71377066</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_MulMul</t>
+          <t>прогнозы_SARIMA_211</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>232372.3202507154</v>
+        <v>19340478.29573418</v>
       </c>
       <c r="C11" t="n">
-        <v>152652.6307960834</v>
+        <v>19843007.64258339</v>
       </c>
       <c r="D11" t="n">
-        <v>93000.29268418555</v>
+        <v>20335782.04044276</v>
       </c>
       <c r="E11" t="n">
-        <v>49451.85207848792</v>
+        <v>20818436.24265069</v>
       </c>
       <c r="F11" t="n">
-        <v>18549.85532276181</v>
+        <v>21292049.00430132</v>
       </c>
       <c r="G11" t="n">
-        <v>-2618.095850736951</v>
+        <v>21755301.48986569</v>
       </c>
       <c r="H11" t="n">
-        <v>-16440.11724671494</v>
+        <v>22209484.34923151</v>
       </c>
       <c r="I11" t="n">
-        <v>-24831.5251329123</v>
+        <v>22654960.6439063</v>
       </c>
       <c r="J11" t="n">
-        <v>-29299.02866774733</v>
+        <v>23091921.17607505</v>
       </c>
       <c r="K11" t="n">
-        <v>-31006.9600180597</v>
+        <v>23518988.60660903</v>
       </c>
       <c r="L11" t="n">
-        <v>-30839.6169817734</v>
+        <v>23937956.23199049</v>
       </c>
       <c r="M11" t="n">
-        <v>-29456.79704695889</v>
+        <v>24347913.9498392</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Matern</t>
+          <t>Прогнозы_ETS_EA12dt</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600176.511581849</v>
+        <v>44285266.45471157</v>
       </c>
       <c r="C12" t="n">
-        <v>650370.8807216305</v>
+        <v>41851221.07033027</v>
       </c>
       <c r="D12" t="n">
-        <v>747587.5581513001</v>
+        <v>46680185.00746451</v>
       </c>
       <c r="E12" t="n">
-        <v>546591.7658797542</v>
+        <v>40051716.69419819</v>
       </c>
       <c r="F12" t="n">
-        <v>568797.0138022073</v>
+        <v>44749195.85204003</v>
       </c>
       <c r="G12" t="n">
-        <v>619619.4062009673</v>
+        <v>49003032.40562938</v>
       </c>
       <c r="H12" t="n">
-        <v>717451.5377523847</v>
+        <v>45251811.05143686</v>
       </c>
       <c r="I12" t="n">
-        <v>517058.8820216614</v>
+        <v>51303200.52216785</v>
       </c>
       <c r="J12" t="n">
-        <v>539855.1954257176</v>
+        <v>54749699.44194455</v>
       </c>
       <c r="K12" t="n">
-        <v>591256.8238347288</v>
+        <v>53609571.15505394</v>
       </c>
       <c r="L12" t="n">
-        <v>689656.5986778194</v>
+        <v>44342596.97448541</v>
       </c>
       <c r="M12" t="n">
-        <v>489820.2255346409</v>
+        <v>42445228.63167094</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA4dt</t>
+          <t>Прогнозы_Holt-Winters_AdditMul</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3049946.181044722</v>
+        <v>32203559.7060708</v>
       </c>
       <c r="C13" t="n">
-        <v>3071694.655853636</v>
+        <v>34230714.7885368</v>
       </c>
       <c r="D13" t="n">
-        <v>3019734.9643649</v>
+        <v>32200229.1628744</v>
       </c>
       <c r="E13" t="n">
-        <v>3045134.399278348</v>
+        <v>31171842.53128041</v>
       </c>
       <c r="F13" t="n">
-        <v>2989232.0675023</v>
+        <v>31825539.41793211</v>
       </c>
       <c r="G13" t="n">
-        <v>3033404.993425964</v>
+        <v>33852694.50039811</v>
       </c>
       <c r="H13" t="n">
-        <v>3618057.178985798</v>
+        <v>31822208.87473572</v>
       </c>
       <c r="I13" t="n">
-        <v>3437191.231268106</v>
+        <v>30793822.24314172</v>
       </c>
       <c r="J13" t="n">
-        <v>3232995.29908028</v>
+        <v>31447519.12979342</v>
       </c>
       <c r="K13" t="n">
-        <v>3898839.546670618</v>
+        <v>33474674.21225943</v>
       </c>
       <c r="L13" t="n">
-        <v>3257800.294939384</v>
+        <v>31444188.58659703</v>
       </c>
       <c r="M13" t="n">
-        <v>3568509.321929601</v>
+        <v>30415801.95500303</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_112</t>
+          <t>Прогнозы_ETS_EA4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47955.07443026649</v>
+        <v>759487.4975686222</v>
       </c>
       <c r="C14" t="n">
-        <v>237141.8123436122</v>
+        <v>779706.6305537671</v>
       </c>
       <c r="D14" t="n">
-        <v>448199.4934633176</v>
+        <v>799925.0417791009</v>
       </c>
       <c r="E14" t="n">
-        <v>466781.1397853729</v>
+        <v>820142.7326399982</v>
       </c>
       <c r="F14" t="n">
-        <v>178205.5180095281</v>
+        <v>840359.7045291066</v>
       </c>
       <c r="G14" t="n">
-        <v>174589.0374676744</v>
+        <v>860575.9588363022</v>
       </c>
       <c r="H14" t="n">
-        <v>322868.7420585423</v>
+        <v>880791.4969491214</v>
       </c>
       <c r="I14" t="n">
-        <v>155389.0704943473</v>
+        <v>901006.320251897</v>
       </c>
       <c r="J14" t="n">
-        <v>129596.5365514101</v>
+        <v>921220.4301266372</v>
       </c>
       <c r="K14" t="n">
-        <v>294781.9953778208</v>
+        <v>941433.8279526532</v>
       </c>
       <c r="L14" t="n">
-        <v>94126.22898004481</v>
+        <v>961646.5151065141</v>
       </c>
       <c r="M14" t="n">
-        <v>157802.7303598413</v>
+        <v>981858.4929620475</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdditMul</t>
+          <t>Прогнозы_GP_Combo_3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>960962.9352729812</v>
+        <v>4539492.342371245</v>
       </c>
       <c r="C15" t="n">
-        <v>742150.7077894533</v>
+        <v>5490509.778238113</v>
       </c>
       <c r="D15" t="n">
-        <v>772602.563526728</v>
+        <v>5805058.451311948</v>
       </c>
       <c r="E15" t="n">
-        <v>920521.1925086384</v>
+        <v>4442167.033732535</v>
       </c>
       <c r="F15" t="n">
-        <v>807705.3251935265</v>
+        <v>4815110.723110524</v>
       </c>
       <c r="G15" t="n">
-        <v>4472588.347063783</v>
+        <v>4205418.187760072</v>
       </c>
       <c r="H15" t="n">
-        <v>2147094.431289657</v>
+        <v>5870773.033570813</v>
       </c>
       <c r="I15" t="n">
-        <v>1185809.40301123</v>
+        <v>5718009.194081844</v>
       </c>
       <c r="J15" t="n">
-        <v>1220813.080514733</v>
+        <v>5634795.960785976</v>
       </c>
       <c r="K15" t="n">
-        <v>1385005.295542495</v>
+        <v>6775945.64768441</v>
       </c>
       <c r="L15" t="n">
-        <v>1323229.842392178</v>
+        <v>6671501.926176632</v>
       </c>
       <c r="M15" t="n">
-        <v>1852002.722868135</v>
+        <v>5605866.260413627</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdditMul</t>
+          <t>прогнозы_SARIMA_211</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1576113.070146458</v>
+        <v>11687997.78615946</v>
       </c>
       <c r="C16" t="n">
-        <v>1610894.973006166</v>
+        <v>11931497.74003789</v>
       </c>
       <c r="D16" t="n">
-        <v>1587520.262632275</v>
+        <v>12174997.69391614</v>
       </c>
       <c r="E16" t="n">
-        <v>1598824.968308214</v>
+        <v>12418497.64779451</v>
       </c>
       <c r="F16" t="n">
-        <v>1582972.804523118</v>
+        <v>12661997.60167277</v>
       </c>
       <c r="G16" t="n">
-        <v>1591656.092464664</v>
+        <v>12905497.55555111</v>
       </c>
       <c r="H16" t="n">
-        <v>1795517.942065483</v>
+        <v>13148997.50942963</v>
       </c>
       <c r="I16" t="n">
-        <v>1648257.781634033</v>
+        <v>13392497.46330774</v>
       </c>
       <c r="J16" t="n">
-        <v>1652955.194982815</v>
+        <v>13635997.41718617</v>
       </c>
       <c r="K16" t="n">
-        <v>1694247.813127517</v>
+        <v>13879497.37106442</v>
       </c>
       <c r="L16" t="n">
-        <v>1594951.473180498</v>
+        <v>14122997.3249428</v>
       </c>
       <c r="M16" t="n">
-        <v>2440293.586835547</v>
+        <v>14366497.27882102</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_112</t>
+          <t>Прогнозы_GP_Combo_3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5079136.790457956</v>
+        <v>5657114.939781002</v>
       </c>
       <c r="C17" t="n">
-        <v>6791534.567816791</v>
+        <v>4950156.863465657</v>
       </c>
       <c r="D17" t="n">
-        <v>7214343.000410706</v>
+        <v>5344911.064433333</v>
       </c>
       <c r="E17" t="n">
-        <v>6630170.622992042</v>
+        <v>5056173.03803384</v>
       </c>
       <c r="F17" t="n">
-        <v>9475182.748623382</v>
+        <v>5375083.595614732</v>
       </c>
       <c r="G17" t="n">
-        <v>6784436.536293929</v>
+        <v>5591272.700292</v>
       </c>
       <c r="H17" t="n">
-        <v>6392788.3815712</v>
+        <v>5575383.553568006</v>
       </c>
       <c r="I17" t="n">
-        <v>6040616.2907696</v>
+        <v>6209029.113626925</v>
       </c>
       <c r="J17" t="n">
-        <v>5495460.617330438</v>
+        <v>6302208.969180597</v>
       </c>
       <c r="K17" t="n">
-        <v>4384680.879473551</v>
+        <v>6623918.29575698</v>
       </c>
       <c r="L17" t="n">
-        <v>4016939.080944855</v>
+        <v>6034165.25071535</v>
       </c>
       <c r="M17" t="n">
-        <v>6634097.610649287</v>
+        <v>5322215.869709518</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>прогнозы_STL</t>
+          <t>Прогнозы_ETS_HA12dt</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1167648.347573772</v>
+        <v>3215315.598316422</v>
       </c>
       <c r="C18" t="n">
-        <v>1192803.027727634</v>
+        <v>3214697.013330944</v>
       </c>
       <c r="D18" t="n">
-        <v>1276218.510101467</v>
+        <v>3214084.652356509</v>
       </c>
       <c r="E18" t="n">
-        <v>1270018.776469074</v>
+        <v>3213480.269980326</v>
       </c>
       <c r="F18" t="n">
-        <v>1306704.135303281</v>
+        <v>3212885.191969657</v>
       </c>
       <c r="G18" t="n">
-        <v>1423441.377390333</v>
+        <v>3212300.398237864</v>
       </c>
       <c r="H18" t="n">
-        <v>1346596.701789446</v>
+        <v>3211726.590482388</v>
       </c>
       <c r="I18" t="n">
-        <v>1305333.716286145</v>
+        <v>3211164.24728555</v>
       </c>
       <c r="J18" t="n">
-        <v>1348861.337290086</v>
+        <v>3210613.668971019</v>
       </c>
       <c r="K18" t="n">
-        <v>1054862.641688444</v>
+        <v>3210075.014086926</v>
       </c>
       <c r="L18" t="n">
-        <v>1395169.794664815</v>
+        <v>3209548.329053264</v>
       </c>
       <c r="M18" t="n">
-        <v>1379623.672062725</v>
+        <v>3209033.572225524</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_1</t>
+          <t>прогнозы_GP_Neural1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34781.76021879062</v>
+        <v>5015539.023018056</v>
       </c>
       <c r="C19" t="n">
-        <v>-69072.91134578935</v>
+        <v>6679757.939373123</v>
       </c>
       <c r="D19" t="n">
-        <v>-15633.26374063341</v>
+        <v>4605445.378138534</v>
       </c>
       <c r="E19" t="n">
-        <v>-55743.57429386571</v>
+        <v>4045113.920619166</v>
       </c>
       <c r="F19" t="n">
-        <v>6273.023890480668</v>
+        <v>3980907.591763923</v>
       </c>
       <c r="G19" t="n">
-        <v>-97581.64767409931</v>
+        <v>6030760.249293396</v>
       </c>
       <c r="H19" t="n">
-        <v>-44142.00006894337</v>
+        <v>7159369.63419296</v>
       </c>
       <c r="I19" t="n">
-        <v>-84252.31062217568</v>
+        <v>4904922.857204441</v>
       </c>
       <c r="J19" t="n">
-        <v>-22235.7124378293</v>
+        <v>6741384.110427501</v>
       </c>
       <c r="K19" t="n">
-        <v>-126090.3840024093</v>
+        <v>5295717.829112611</v>
       </c>
       <c r="L19" t="n">
-        <v>-72650.73639725335</v>
+        <v>6485443.626084765</v>
       </c>
       <c r="M19" t="n">
-        <v>-112761.0469504857</v>
+        <v>3497333.413123137</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>Прогнозы_ETS_HA12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>946789.0928685938</v>
+        <v>2670426.213560376</v>
       </c>
       <c r="C20" t="n">
-        <v>2900788.486230182</v>
+        <v>2669831.764556378</v>
       </c>
       <c r="D20" t="n">
-        <v>2284666.470333157</v>
+        <v>2669333.585996201</v>
       </c>
       <c r="E20" t="n">
-        <v>2466772.023233797</v>
+        <v>2668937.253582385</v>
       </c>
       <c r="F20" t="n">
-        <v>2361616.006019402</v>
+        <v>2668647.203596003</v>
       </c>
       <c r="G20" t="n">
-        <v>2836944.787191821</v>
+        <v>2668466.683354871</v>
       </c>
       <c r="H20" t="n">
-        <v>2161612.660680175</v>
+        <v>2668397.714918562</v>
       </c>
       <c r="I20" t="n">
-        <v>2705582.66773559</v>
+        <v>2668441.072443039</v>
       </c>
       <c r="J20" t="n">
-        <v>3065209.973947689</v>
+        <v>2668596.273438414</v>
       </c>
       <c r="K20" t="n">
-        <v>2354509.619719301</v>
+        <v>2668861.584030837</v>
       </c>
       <c r="L20" t="n">
-        <v>2690909.75226539</v>
+        <v>2669234.038175953</v>
       </c>
       <c r="M20" t="n">
-        <v>2926023.010972845</v>
+        <v>2669709.470618082</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_112</t>
+          <t>Прогнозы_GP_Ex_Per</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1328821.946854813</v>
+        <v>3504290.785848558</v>
       </c>
       <c r="C21" t="n">
-        <v>1682101.725439044</v>
+        <v>3531901.680681616</v>
       </c>
       <c r="D21" t="n">
-        <v>1424807.206242739</v>
+        <v>3556610.724265244</v>
       </c>
       <c r="E21" t="n">
-        <v>1484800.684766276</v>
+        <v>3588860.595785677</v>
       </c>
       <c r="F21" t="n">
-        <v>1367907.82474052</v>
+        <v>3614906.132504128</v>
       </c>
       <c r="G21" t="n">
-        <v>1721187.603324752</v>
+        <v>3640903.751461893</v>
       </c>
       <c r="H21" t="n">
-        <v>1463893.084128446</v>
+        <v>3673162.837562431</v>
       </c>
       <c r="I21" t="n">
-        <v>1523886.562651983</v>
+        <v>3697908.476508532</v>
       </c>
       <c r="J21" t="n">
-        <v>1406993.702626228</v>
+        <v>3725467.177680843</v>
       </c>
       <c r="K21" t="n">
-        <v>1760273.481210459</v>
+        <v>3757141.187531352</v>
       </c>
       <c r="L21" t="n">
-        <v>1502978.962014154</v>
+        <v>3781031.742662515</v>
       </c>
       <c r="M21" t="n">
-        <v>1562972.440537691</v>
+        <v>3810208.364374653</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>Прогнозы_GP_Combo_1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562895.6358771971</v>
+        <v>13400799.02029505</v>
       </c>
       <c r="C22" t="n">
-        <v>562895.6358771971</v>
+        <v>13655722.17977174</v>
       </c>
       <c r="D22" t="n">
-        <v>562895.6358771971</v>
+        <v>13078928.16127301</v>
       </c>
       <c r="E22" t="n">
-        <v>562895.6358771971</v>
+        <v>12840247.23494509</v>
       </c>
       <c r="F22" t="n">
-        <v>562895.6358771971</v>
+        <v>14196634.79890307</v>
       </c>
       <c r="G22" t="n">
-        <v>562895.6358771971</v>
+        <v>14451557.95837976</v>
       </c>
       <c r="H22" t="n">
-        <v>562895.6358771971</v>
+        <v>13874763.93988104</v>
       </c>
       <c r="I22" t="n">
-        <v>562895.6358771971</v>
+        <v>13636083.01355311</v>
       </c>
       <c r="J22" t="n">
-        <v>562895.6358771971</v>
+        <v>14992470.5775111</v>
       </c>
       <c r="K22" t="n">
-        <v>562895.6358771971</v>
+        <v>15247393.73698779</v>
       </c>
       <c r="L22" t="n">
-        <v>562895.6358771971</v>
+        <v>14670599.71848906</v>
       </c>
       <c r="M22" t="n">
-        <v>562895.6358771971</v>
+        <v>14431918.79216114</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Ex_Per</t>
+          <t>Прогнозы_ETS_EA4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-89920.28795484277</v>
+        <v>10670676.07997129</v>
       </c>
       <c r="C23" t="n">
-        <v>71080.5984755751</v>
+        <v>9790402.154632483</v>
       </c>
       <c r="D23" t="n">
-        <v>18735.56795214088</v>
+        <v>10354810.26406519</v>
       </c>
       <c r="E23" t="n">
-        <v>-69848.02292091228</v>
+        <v>9937522.139442544</v>
       </c>
       <c r="F23" t="n">
-        <v>-24964.12669845754</v>
+        <v>9432372.438847132</v>
       </c>
       <c r="G23" t="n">
-        <v>-90075.45598060547</v>
+        <v>9321757.975838128</v>
       </c>
       <c r="H23" t="n">
-        <v>-89895.7752367385</v>
+        <v>7115481.574794952</v>
       </c>
       <c r="I23" t="n">
-        <v>-89892.88617176865</v>
+        <v>7265443.749758758</v>
       </c>
       <c r="J23" t="n">
-        <v>-89889.61300664782</v>
+        <v>7898718.274751727</v>
       </c>
       <c r="K23" t="n">
-        <v>-88746.51354611016</v>
+        <v>9605671.374328846</v>
       </c>
       <c r="L23" t="n">
-        <v>-82348.71189353547</v>
+        <v>6253802.924357491</v>
       </c>
       <c r="M23" t="n">
-        <v>207224.99418107</v>
+        <v>4944223.792530846</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdAd</t>
+          <t>прогнозы_STL</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9183380.040195219</v>
+        <v>9898789.895066829</v>
       </c>
       <c r="C24" t="n">
-        <v>12393845.19993257</v>
+        <v>11488100.78941018</v>
       </c>
       <c r="D24" t="n">
-        <v>14361713.50208463</v>
+        <v>11797938.55491471</v>
       </c>
       <c r="E24" t="n">
-        <v>13860617.22101606</v>
+        <v>9215637.714127241</v>
       </c>
       <c r="F24" t="n">
-        <v>12799612.75303159</v>
+        <v>10372867.49057152</v>
       </c>
       <c r="G24" t="n">
-        <v>13048755.28020226</v>
+        <v>10758711.29435116</v>
       </c>
       <c r="H24" t="n">
-        <v>13435855.5850862</v>
+        <v>9584991.831932107</v>
       </c>
       <c r="I24" t="n">
-        <v>11237965.25540219</v>
+        <v>11128675.16387569</v>
       </c>
       <c r="J24" t="n">
-        <v>12674104.07307501</v>
+        <v>10648247.60560923</v>
       </c>
       <c r="K24" t="n">
-        <v>11419969.39787729</v>
+        <v>11304374.75328987</v>
       </c>
       <c r="L24" t="n">
-        <v>11959115.70075156</v>
+        <v>13917181.78503062</v>
       </c>
       <c r="M24" t="n">
-        <v>14614085.1413002</v>
+        <v>8703919.906686943</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_MulAd</t>
+          <t>Прогнозы_ETS_HA12dt</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1913500.745649389</v>
+        <v>4772616.308308084</v>
       </c>
       <c r="C25" t="n">
-        <v>2969992.578983115</v>
+        <v>5534281.053175556</v>
       </c>
       <c r="D25" t="n">
-        <v>2727196.321346982</v>
+        <v>5339347.195589613</v>
       </c>
       <c r="E25" t="n">
-        <v>2849568.494470874</v>
+        <v>4055210.220474586</v>
       </c>
       <c r="F25" t="n">
-        <v>2769517.314387871</v>
+        <v>4543847.31705117</v>
       </c>
       <c r="G25" t="n">
-        <v>2462699.530565419</v>
+        <v>4949590.793834996</v>
       </c>
       <c r="H25" t="n">
-        <v>2615864.915747618</v>
+        <v>6181686.413018994</v>
       </c>
       <c r="I25" t="n">
-        <v>2705126.938072577</v>
+        <v>5480745.69367302</v>
       </c>
       <c r="J25" t="n">
-        <v>2419026.875602138</v>
+        <v>5395254.001016169</v>
       </c>
       <c r="K25" t="n">
-        <v>3374337.159081813</v>
+        <v>5355686.525534969</v>
       </c>
       <c r="L25" t="n">
-        <v>3238707.559572529</v>
+        <v>5246077.537594231</v>
       </c>
       <c r="M25" t="n">
-        <v>2955065.41976296</v>
+        <v>3508930.474563741</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA12</t>
+          <t>Прогнозы_ETS_EA12dt</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12071447.68533887</v>
+        <v>11654001.63405833</v>
       </c>
       <c r="C26" t="n">
-        <v>12621818.97644043</v>
+        <v>14591746.55961425</v>
       </c>
       <c r="D26" t="n">
-        <v>15074423.51087928</v>
+        <v>10129080.77240715</v>
       </c>
       <c r="E26" t="n">
-        <v>17572387.3940706</v>
+        <v>9715333.31579555</v>
       </c>
       <c r="F26" t="n">
-        <v>16982988.07118273</v>
+        <v>11401742.06281866</v>
       </c>
       <c r="G26" t="n">
-        <v>17738706.86681417</v>
+        <v>13566198.84749526</v>
       </c>
       <c r="H26" t="n">
-        <v>16764719.01467566</v>
+        <v>16585313.93771206</v>
       </c>
       <c r="I26" t="n">
-        <v>17610294.67653422</v>
+        <v>14149962.84264634</v>
       </c>
       <c r="J26" t="n">
-        <v>16787992.43161423</v>
+        <v>12855802.47731381</v>
       </c>
       <c r="K26" t="n">
-        <v>17316436.97819709</v>
+        <v>8838355.363091128</v>
       </c>
       <c r="L26" t="n">
-        <v>17411990.43211567</v>
+        <v>16096517.37164828</v>
       </c>
       <c r="M26" t="n">
-        <v>19655675.68761135</v>
+        <v>12205203.28966426</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_MulAd</t>
+          <t>Прогнозы_ProphetMul</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15123088.91846885</v>
+        <v>3120088.265405029</v>
       </c>
       <c r="C27" t="n">
-        <v>19023435.34416876</v>
+        <v>3912995.095015872</v>
       </c>
       <c r="D27" t="n">
-        <v>19063175.43170093</v>
+        <v>3819217.692296986</v>
       </c>
       <c r="E27" t="n">
-        <v>17842064.01701643</v>
+        <v>2627161.599999956</v>
       </c>
       <c r="F27" t="n">
-        <v>16524859.85034943</v>
+        <v>3119540.724410295</v>
       </c>
       <c r="G27" t="n">
-        <v>17063796.14356075</v>
+        <v>3912557.059857995</v>
       </c>
       <c r="H27" t="n">
-        <v>16823049.99269214</v>
+        <v>3818867.262281001</v>
       </c>
       <c r="I27" t="n">
-        <v>17494124.59087661</v>
+        <v>2626881.254475414</v>
       </c>
       <c r="J27" t="n">
-        <v>17704219.21259179</v>
+        <v>3119316.446781251</v>
       </c>
       <c r="K27" t="n">
-        <v>17618512.31184338</v>
+        <v>3912377.636787227</v>
       </c>
       <c r="L27" t="n">
-        <v>19171322.0323333</v>
+        <v>3818723.723050356</v>
       </c>
       <c r="M27" t="n">
-        <v>34259318.64193143</v>
+        <v>2626766.42247167</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Прогнозы_Holt-Winters_AdditMul</t>
+          <t>Прогнозы_ETS_EA4dt</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20781493.70158208</v>
+        <v>10408453.40258114</v>
       </c>
       <c r="C28" t="n">
-        <v>21367644.76211465</v>
+        <v>9895919.802788893</v>
       </c>
       <c r="D28" t="n">
-        <v>21954556.46694511</v>
+        <v>11011556.98700621</v>
       </c>
       <c r="E28" t="n">
-        <v>22538715.40862628</v>
+        <v>7697269.370716242</v>
       </c>
       <c r="F28" t="n">
-        <v>23123354.23717738</v>
+        <v>10007637.52372274</v>
       </c>
       <c r="G28" t="n">
-        <v>23709505.29770995</v>
+        <v>9495103.923930498</v>
       </c>
       <c r="H28" t="n">
-        <v>24296417.00254041</v>
+        <v>10610741.10814782</v>
       </c>
       <c r="I28" t="n">
-        <v>24880575.94422158</v>
+        <v>7296453.491857847</v>
       </c>
       <c r="J28" t="n">
-        <v>25465214.77277268</v>
+        <v>9606821.644864347</v>
       </c>
       <c r="K28" t="n">
-        <v>26051365.83330525</v>
+        <v>9094288.045072103</v>
       </c>
       <c r="L28" t="n">
-        <v>26638277.5381357</v>
+        <v>10209925.22928942</v>
       </c>
       <c r="M28" t="n">
-        <v>27222436.47981688</v>
+        <v>6895637.612999452</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA4</t>
+          <t>Прогнозы_ETS_EA4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15411439.32954714</v>
+        <v>1847209.794869407</v>
       </c>
       <c r="C29" t="n">
-        <v>16618783.12383202</v>
+        <v>2507554.928231154</v>
       </c>
       <c r="D29" t="n">
-        <v>16010061.75705621</v>
+        <v>2919487.070605645</v>
       </c>
       <c r="E29" t="n">
-        <v>16519168.8643819</v>
+        <v>2867267.679641994</v>
       </c>
       <c r="F29" t="n">
-        <v>15812652.80849452</v>
+        <v>3506377.431684785</v>
       </c>
       <c r="G29" t="n">
-        <v>18863054.67178173</v>
+        <v>3406593.073401803</v>
       </c>
       <c r="H29" t="n">
-        <v>17984247.02048241</v>
+        <v>2981573.103500161</v>
       </c>
       <c r="I29" t="n">
-        <v>16806236.60038925</v>
+        <v>3136689.641468251</v>
       </c>
       <c r="J29" t="n">
-        <v>16592535.76704701</v>
+        <v>2892566.460130453</v>
       </c>
       <c r="K29" t="n">
-        <v>20051835.22810857</v>
+        <v>2936447.193081268</v>
       </c>
       <c r="L29" t="n">
-        <v>19601023.24794777</v>
+        <v>2255444.648333081</v>
       </c>
       <c r="M29" t="n">
-        <v>20582185.08325653</v>
+        <v>2721364.925825052</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>прогнозы_STL</t>
+          <t>прогнозы_SARIMA_122</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46264762.09377275</v>
+        <v>477423.9531658766</v>
       </c>
       <c r="C30" t="n">
-        <v>49516799.68761858</v>
+        <v>471028.3320843313</v>
       </c>
       <c r="D30" t="n">
-        <v>52821091.1721794</v>
+        <v>464736.882447093</v>
       </c>
       <c r="E30" t="n">
-        <v>44594022.19857252</v>
+        <v>458547.9074834889</v>
       </c>
       <c r="F30" t="n">
-        <v>48853468.67676199</v>
+        <v>452459.7380691981</v>
       </c>
       <c r="G30" t="n">
-        <v>52105506.27060782</v>
+        <v>446470.7322758856</v>
       </c>
       <c r="H30" t="n">
-        <v>55409797.75516865</v>
+        <v>440579.2749281405</v>
       </c>
       <c r="I30" t="n">
-        <v>47182728.78156177</v>
+        <v>434783.7771675968</v>
       </c>
       <c r="J30" t="n">
-        <v>51442175.25975124</v>
+        <v>429082.676024123</v>
       </c>
       <c r="K30" t="n">
-        <v>54694212.85359707</v>
+        <v>423474.4339939652</v>
       </c>
       <c r="L30" t="n">
-        <v>57998504.33815789</v>
+        <v>417957.5386247312</v>
       </c>
       <c r="M30" t="n">
-        <v>49771435.36455102</v>
+        <v>412530.5021071027</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA4</t>
+          <t>Прогнозы_GP_Combo_2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33529734.53563956</v>
+        <v>1145715.979346409</v>
       </c>
       <c r="C31" t="n">
-        <v>37315847.50852612</v>
+        <v>1169585.062249437</v>
       </c>
       <c r="D31" t="n">
-        <v>38684394.05503075</v>
+        <v>1193454.145152539</v>
       </c>
       <c r="E31" t="n">
-        <v>38005218.93591107</v>
+        <v>1217323.228055567</v>
       </c>
       <c r="F31" t="n">
-        <v>33535397.04790961</v>
+        <v>1241192.310958624</v>
       </c>
       <c r="G31" t="n">
-        <v>38374403.21292717</v>
+        <v>1265061.393861666</v>
       </c>
       <c r="H31" t="n">
-        <v>42589435.13191133</v>
+        <v>1288930.476764694</v>
       </c>
       <c r="I31" t="n">
-        <v>44831852.36189695</v>
+        <v>1312799.559667766</v>
       </c>
       <c r="J31" t="n">
-        <v>46203767.49480955</v>
+        <v>1336668.642570809</v>
       </c>
       <c r="K31" t="n">
-        <v>46623163.87941468</v>
+        <v>1360537.725473866</v>
       </c>
       <c r="L31" t="n">
-        <v>42174400.81116046</v>
+        <v>1384406.808376908</v>
       </c>
       <c r="M31" t="n">
-        <v>37943119.75065443</v>
+        <v>1408275.891279951</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA12</t>
+          <t>Прогнозы_GP_lin_Per</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1575269.580934867</v>
+        <v>1707292.634074317</v>
       </c>
       <c r="C32" t="n">
-        <v>1696335.293479519</v>
+        <v>1713368.522259334</v>
       </c>
       <c r="D32" t="n">
-        <v>1816022.540420718</v>
+        <v>1719084.76954264</v>
       </c>
       <c r="E32" t="n">
-        <v>1934172.104725593</v>
+        <v>1724466.396797789</v>
       </c>
       <c r="F32" t="n">
-        <v>2052175.621986528</v>
+        <v>1729536.502831705</v>
       </c>
       <c r="G32" t="n">
-        <v>2176057.972465935</v>
+        <v>1734316.419031015</v>
       </c>
       <c r="H32" t="n">
-        <v>2301915.847523173</v>
+        <v>1738825.851657519</v>
       </c>
       <c r="I32" t="n">
-        <v>2407753.785027558</v>
+        <v>1743083.012710299</v>
       </c>
       <c r="J32" t="n">
-        <v>2528499.537535801</v>
+        <v>1747104.740209343</v>
       </c>
       <c r="K32" t="n">
-        <v>2644881.526067115</v>
+        <v>1750906.608706785</v>
       </c>
       <c r="L32" t="n">
-        <v>2767388.297016252</v>
+        <v>1754503.030774999</v>
       </c>
       <c r="M32" t="n">
-        <v>2891509.925297264</v>
+        <v>1757907.350174377</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA12</t>
+          <t>прогнозы_GP_Neural2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4219102.460290867</v>
+        <v>2938548.364435568</v>
       </c>
       <c r="C33" t="n">
-        <v>4428147.929757356</v>
+        <v>2999768.122027963</v>
       </c>
       <c r="D33" t="n">
-        <v>4792298.174306914</v>
+        <v>3060987.879620388</v>
       </c>
       <c r="E33" t="n">
-        <v>5260987.385075438</v>
+        <v>3122207.637212768</v>
       </c>
       <c r="F33" t="n">
-        <v>4757925.904979369</v>
+        <v>3183427.394805238</v>
       </c>
       <c r="G33" t="n">
-        <v>4956194.903974009</v>
+        <v>3244647.152397618</v>
       </c>
       <c r="H33" t="n">
-        <v>5309784.207492718</v>
+        <v>3305866.909989968</v>
       </c>
       <c r="I33" t="n">
-        <v>5768123.696081939</v>
+        <v>3367086.667582393</v>
       </c>
       <c r="J33" t="n">
-        <v>5254919.488280465</v>
+        <v>3428306.425174832</v>
       </c>
       <c r="K33" t="n">
-        <v>5443248.614153514</v>
+        <v>3489526.182767183</v>
       </c>
       <c r="L33" t="n">
-        <v>5787096.842042174</v>
+        <v>3550745.940359622</v>
       </c>
       <c r="M33" t="n">
-        <v>6235890.076542477</v>
+        <v>3611965.697952017</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4dt</t>
+          <t>Прогнозы_GP_Combo_3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11369412.75654805</v>
+        <v>2515907.656364137</v>
       </c>
       <c r="C34" t="n">
-        <v>10013741.71862308</v>
+        <v>2732768.344550554</v>
       </c>
       <c r="D34" t="n">
-        <v>10461361.40235368</v>
+        <v>3037062.170239038</v>
       </c>
       <c r="E34" t="n">
-        <v>11787358.84850845</v>
+        <v>3069884.897790908</v>
       </c>
       <c r="F34" t="n">
-        <v>10969806.37625892</v>
+        <v>3144140.95715157</v>
       </c>
       <c r="G34" t="n">
-        <v>11060906.63497069</v>
+        <v>2859492.500999132</v>
       </c>
       <c r="H34" t="n">
-        <v>11436649.07861358</v>
+        <v>4159248.307783143</v>
       </c>
       <c r="I34" t="n">
-        <v>10236819.73437072</v>
+        <v>2756059.500128775</v>
       </c>
       <c r="J34" t="n">
-        <v>12723474.87313727</v>
+        <v>4224145.211718013</v>
       </c>
       <c r="K34" t="n">
-        <v>12196800.70111268</v>
+        <v>3026670.32036636</v>
       </c>
       <c r="L34" t="n">
-        <v>13183054.34959194</v>
+        <v>3720997.831388882</v>
       </c>
       <c r="M34" t="n">
-        <v>13248064.40031846</v>
+        <v>3090345.102575955</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA12dt</t>
+          <t>Прогнозы_Holt-Winters_MulMul</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5269477.294916799</v>
+        <v>1311027.925857559</v>
       </c>
       <c r="C35" t="n">
-        <v>6849389.000417119</v>
+        <v>1689949.177800205</v>
       </c>
       <c r="D35" t="n">
-        <v>5619881.324653001</v>
+        <v>1372245.348062894</v>
       </c>
       <c r="E35" t="n">
-        <v>5675486.638729815</v>
+        <v>1339227.090407968</v>
       </c>
       <c r="F35" t="n">
-        <v>5879133.890409132</v>
+        <v>1269354.750844374</v>
       </c>
       <c r="G35" t="n">
-        <v>6440140.094177013</v>
+        <v>1656924.074339046</v>
       </c>
       <c r="H35" t="n">
-        <v>6680709.01771355</v>
+        <v>1451591.068954962</v>
       </c>
       <c r="I35" t="n">
-        <v>6618934.900270023</v>
+        <v>1642958.769465614</v>
       </c>
       <c r="J35" t="n">
-        <v>7112146.072783219</v>
+        <v>1561920.262537474</v>
       </c>
       <c r="K35" t="n">
-        <v>7561735.570453985</v>
+        <v>1275885.816095161</v>
       </c>
       <c r="L35" t="n">
-        <v>7888152.408448442</v>
+        <v>1591155.939630803</v>
       </c>
       <c r="M35" t="n">
-        <v>7322558.024770656</v>
+        <v>1188140.431733846</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>прогнозы_SARIMA_111</t>
+          <t>Прогнозы_ETS_EA12dt</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3175577.680160463</v>
+        <v>1066277.231561911</v>
       </c>
       <c r="C36" t="n">
-        <v>3172489.269710444</v>
+        <v>1066277.231561923</v>
       </c>
       <c r="D36" t="n">
-        <v>3169537.34788017</v>
+        <v>1066277.231561936</v>
       </c>
       <c r="E36" t="n">
-        <v>3166716.19111748</v>
+        <v>1066277.23156195</v>
       </c>
       <c r="F36" t="n">
-        <v>3164019.928860843</v>
+        <v>1066277.231561962</v>
       </c>
       <c r="G36" t="n">
-        <v>3161442.659509286</v>
+        <v>1066277.231561971</v>
       </c>
       <c r="H36" t="n">
-        <v>3158978.537849031</v>
+        <v>1066277.231561986</v>
       </c>
       <c r="I36" t="n">
-        <v>3156621.839758091</v>
+        <v>1066277.231561996</v>
       </c>
       <c r="J36" t="n">
-        <v>3154367.008894473</v>
+        <v>1066277.23156201</v>
       </c>
       <c r="K36" t="n">
-        <v>3152208.689195588</v>
+        <v>1066277.231562023</v>
       </c>
       <c r="L36" t="n">
-        <v>3150141.746272318</v>
+        <v>1066277.231562032</v>
       </c>
       <c r="M36" t="n">
-        <v>3148161.280176364</v>
+        <v>1066277.231562046</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>прогнозы_GP_Neural2</t>
+          <t>Прогнозы_GP_Mater_Per</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3715867.289258207</v>
+        <v>3209437.217961608</v>
       </c>
       <c r="C37" t="n">
-        <v>5351383.741160886</v>
+        <v>3639797.70071853</v>
       </c>
       <c r="D37" t="n">
-        <v>6826385.028634766</v>
+        <v>3316880.522487101</v>
       </c>
       <c r="E37" t="n">
-        <v>4106120.877608063</v>
+        <v>2880690.37684365</v>
       </c>
       <c r="F37" t="n">
-        <v>3682235.441833409</v>
+        <v>3327608.755452986</v>
       </c>
       <c r="G37" t="n">
-        <v>4828078.323395675</v>
+        <v>3757969.238209907</v>
       </c>
       <c r="H37" t="n">
-        <v>5569119.175266048</v>
+        <v>3435052.059978479</v>
       </c>
       <c r="I37" t="n">
-        <v>7454003.103916496</v>
+        <v>2998861.914335027</v>
       </c>
       <c r="J37" t="n">
-        <v>5104759.07353358</v>
+        <v>3445780.292944363</v>
       </c>
       <c r="K37" t="n">
-        <v>7144878.788478809</v>
+        <v>3876140.775701285</v>
       </c>
       <c r="L37" t="n">
-        <v>6056526.453100104</v>
+        <v>3553223.597469856</v>
       </c>
       <c r="M37" t="n">
-        <v>5896692.281260248</v>
+        <v>3117033.451826405</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA12</t>
+          <t>Прогнозы_ETS_CA4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1826561.062171848</v>
+        <v>4436440.234216273</v>
       </c>
       <c r="C38" t="n">
-        <v>3365939.178165472</v>
+        <v>4497678.167957366</v>
       </c>
       <c r="D38" t="n">
-        <v>4089208.729220186</v>
+        <v>4558916.101187468</v>
       </c>
       <c r="E38" t="n">
-        <v>858930.546139732</v>
+        <v>4620154.033907413</v>
       </c>
       <c r="F38" t="n">
-        <v>1717625.099944667</v>
+        <v>4681391.966116488</v>
       </c>
       <c r="G38" t="n">
-        <v>2281091.432654025</v>
+        <v>4742629.897815824</v>
       </c>
       <c r="H38" t="n">
-        <v>1486207.907395668</v>
+        <v>4803867.82900548</v>
       </c>
       <c r="I38" t="n">
-        <v>1358109.526417091</v>
+        <v>4865105.75968504</v>
       </c>
       <c r="J38" t="n">
-        <v>1505913.895044551</v>
+        <v>4926343.689855456</v>
       </c>
       <c r="K38" t="n">
-        <v>2594156.481422104</v>
+        <v>4987581.61951673</v>
       </c>
       <c r="L38" t="n">
-        <v>2120721.202698665</v>
+        <v>5048819.548668504</v>
       </c>
       <c r="M38" t="n">
-        <v>905028.048160424</v>
+        <v>5110057.477311492</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>прогнозы_STL</t>
+          <t>Прогнозы_GP_lin_Per</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4007876.678962316</v>
+        <v>4413489.145380538</v>
       </c>
       <c r="C39" t="n">
-        <v>4311783.401876814</v>
+        <v>4837315.22561597</v>
       </c>
       <c r="D39" t="n">
-        <v>4264229.194576867</v>
+        <v>5016221.782199531</v>
       </c>
       <c r="E39" t="n">
-        <v>4531795.327489053</v>
+        <v>5176279.8419632</v>
       </c>
       <c r="F39" t="n">
-        <v>4043573.236344019</v>
+        <v>5224010.269804675</v>
       </c>
       <c r="G39" t="n">
-        <v>4346765.979053404</v>
+        <v>5209037.119188622</v>
       </c>
       <c r="H39" t="n">
-        <v>4298512.072133665</v>
+        <v>5236297.808858017</v>
       </c>
       <c r="I39" t="n">
-        <v>4565392.500380046</v>
+        <v>4830107.939151713</v>
       </c>
       <c r="J39" t="n">
-        <v>4076498.419604881</v>
+        <v>5798601.897635402</v>
       </c>
       <c r="K39" t="n">
-        <v>4379032.613400248</v>
+        <v>4406585.047966228</v>
       </c>
       <c r="L39" t="n">
-        <v>4330133.329449808</v>
+        <v>4517685.793929025</v>
       </c>
       <c r="M39" t="n">
-        <v>4596381.289093039</v>
+        <v>4010077.041893787</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA4dt</t>
+          <t>Прогнозы_ETS_CA12dt</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10659147.0759604</v>
+        <v>4717683.476724818</v>
       </c>
       <c r="C40" t="n">
-        <v>11948305.44282286</v>
+        <v>4726476.593018264</v>
       </c>
       <c r="D40" t="n">
-        <v>12038079.74814598</v>
+        <v>4734699.087768037</v>
       </c>
       <c r="E40" t="n">
-        <v>13463083.2512512</v>
+        <v>4742392.858662337</v>
       </c>
       <c r="F40" t="n">
-        <v>11799698.81480749</v>
+        <v>4749596.483156163</v>
       </c>
       <c r="G40" t="n">
-        <v>13931706.55902688</v>
+        <v>4756345.484142959</v>
       </c>
       <c r="H40" t="n">
-        <v>12853188.07815398</v>
+        <v>4762672.576509442</v>
       </c>
       <c r="I40" t="n">
-        <v>12579374.84784448</v>
+        <v>4768607.895375442</v>
       </c>
       <c r="J40" t="n">
-        <v>15350625.79093168</v>
+        <v>4774179.206919225</v>
       </c>
       <c r="K40" t="n">
-        <v>15485985.70378148</v>
+        <v>4779412.102759818</v>
       </c>
       <c r="L40" t="n">
-        <v>15973412.11724683</v>
+        <v>4784330.17888492</v>
       </c>
       <c r="M40" t="n">
-        <v>15456832.06079878</v>
+        <v>4788955.200136991</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA12dt</t>
+          <t>прогнозы_GP_Neural2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6483930.991058178</v>
+        <v>2985499.658799186</v>
       </c>
       <c r="C41" t="n">
-        <v>6732497.395936761</v>
+        <v>2903755.420359915</v>
       </c>
       <c r="D41" t="n">
-        <v>6904454.801691432</v>
+        <v>3263651.297296548</v>
       </c>
       <c r="E41" t="n">
-        <v>8631979.549898513</v>
+        <v>2838064.472972837</v>
       </c>
       <c r="F41" t="n">
-        <v>6474410.532890543</v>
+        <v>2977986.923090355</v>
       </c>
       <c r="G41" t="n">
-        <v>6722976.937769126</v>
+        <v>2897383.936705687</v>
       </c>
       <c r="H41" t="n">
-        <v>6894934.343523797</v>
+        <v>3258247.699255906</v>
       </c>
       <c r="I41" t="n">
-        <v>8622459.091730878</v>
+        <v>2833481.730024819</v>
       </c>
       <c r="J41" t="n">
-        <v>6464890.074722908</v>
+        <v>2974100.339971172</v>
       </c>
       <c r="K41" t="n">
-        <v>6713456.479601491</v>
+        <v>2894087.760482481</v>
       </c>
       <c r="L41" t="n">
-        <v>6885413.885356162</v>
+        <v>3255452.241816491</v>
       </c>
       <c r="M41" t="n">
-        <v>8612938.633563243</v>
+        <v>2831110.927687078</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>Прогнозы_ETS_EA4dt</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9293364.930363936</v>
+        <v>3907708.874174421</v>
       </c>
       <c r="C42" t="n">
-        <v>10581926.73684729</v>
+        <v>3938511.456662324</v>
       </c>
       <c r="D42" t="n">
-        <v>11808422.73410321</v>
+        <v>4016483.545851692</v>
       </c>
       <c r="E42" t="n">
-        <v>11813122.35588753</v>
+        <v>3757168.646997071</v>
       </c>
       <c r="F42" t="n">
-        <v>9751478.638013002</v>
+        <v>3961143.678406661</v>
       </c>
       <c r="G42" t="n">
-        <v>10966538.52565354</v>
+        <v>3989938.404862594</v>
       </c>
       <c r="H42" t="n">
-        <v>12131325.5977784</v>
+        <v>4065978.084836034</v>
       </c>
       <c r="I42" t="n">
-        <v>12084217.16474209</v>
+        <v>3804803.388606328</v>
       </c>
       <c r="J42" t="n">
-        <v>9979077.720137632</v>
+        <v>4006988.506032968</v>
       </c>
       <c r="K42" t="n">
-        <v>11157620.54010762</v>
+        <v>4034060.575973046</v>
       </c>
       <c r="L42" t="n">
-        <v>12291749.51472477</v>
+        <v>4108442.329643945</v>
       </c>
       <c r="M42" t="n">
-        <v>12218901.91360211</v>
+        <v>3845672.005034839</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA4dt</t>
+          <t>Прогнозы_ETS_CA4dt</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3501886.926928836</v>
+        <v>2903796.133022542</v>
       </c>
       <c r="C43" t="n">
-        <v>4769681.944937294</v>
+        <v>3170383.354578835</v>
       </c>
       <c r="D43" t="n">
-        <v>5597597.469414225</v>
+        <v>3215239.89161471</v>
       </c>
       <c r="E43" t="n">
-        <v>5320102.888622006</v>
+        <v>2884785.569762053</v>
       </c>
       <c r="F43" t="n">
-        <v>4026187.51912849</v>
+        <v>2961629.881260433</v>
       </c>
       <c r="G43" t="n">
-        <v>4517265.164018827</v>
+        <v>3228217.102816726</v>
       </c>
       <c r="H43" t="n">
-        <v>4979353.418547383</v>
+        <v>3273073.639852602</v>
       </c>
       <c r="I43" t="n">
-        <v>6084537.197216251</v>
+        <v>2942619.317999944</v>
       </c>
       <c r="J43" t="n">
-        <v>5568021.241809214</v>
+        <v>3019463.629498324</v>
       </c>
       <c r="K43" t="n">
-        <v>5467895.768854363</v>
+        <v>3286050.851054617</v>
       </c>
       <c r="L43" t="n">
-        <v>5388832.346653</v>
+        <v>3330907.388090493</v>
       </c>
       <c r="M43" t="n">
-        <v>5348412.095463923</v>
+        <v>3000453.066237835</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_EA12dt</t>
+          <t>Прогнозы_ETS_CA4</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11844430.01033184</v>
+        <v>5839190.189098601</v>
       </c>
       <c r="C44" t="n">
-        <v>15655407.25399614</v>
+        <v>5880452.64502621</v>
       </c>
       <c r="D44" t="n">
-        <v>14898938.40705791</v>
+        <v>5921715.101054983</v>
       </c>
       <c r="E44" t="n">
-        <v>15026003.25447117</v>
+        <v>5962977.557034856</v>
       </c>
       <c r="F44" t="n">
-        <v>17390232.21168838</v>
+        <v>6004240.012999106</v>
       </c>
       <c r="G44" t="n">
-        <v>14391432.0199501</v>
+        <v>6045502.469039585</v>
       </c>
       <c r="H44" t="n">
-        <v>11662238.44103954</v>
+        <v>6086764.924962345</v>
       </c>
       <c r="I44" t="n">
-        <v>12903024.14070226</v>
+        <v>6128027.3810148</v>
       </c>
       <c r="J44" t="n">
-        <v>13434907.41540074</v>
+        <v>6169289.836958096</v>
       </c>
       <c r="K44" t="n">
-        <v>13508915.36189551</v>
+        <v>6210552.292962649</v>
       </c>
       <c r="L44" t="n">
-        <v>14447074.69625964</v>
+        <v>6251814.748969208</v>
       </c>
       <c r="M44" t="n">
-        <v>13690814.97380004</v>
+        <v>6293077.204910997</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>прогнозы_STL</t>
+          <t>Прогнозы_GP_Combo_1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4941399.49334392</v>
+        <v>2799715.861398149</v>
       </c>
       <c r="C45" t="n">
-        <v>5004194.300059691</v>
+        <v>2805803.472875223</v>
       </c>
       <c r="D45" t="n">
-        <v>5066989.106775314</v>
+        <v>2811547.677148934</v>
       </c>
       <c r="E45" t="n">
-        <v>5129783.91349113</v>
+        <v>2816967.864495162</v>
       </c>
       <c r="F45" t="n">
-        <v>5192578.720206529</v>
+        <v>2822082.584994979</v>
       </c>
       <c r="G45" t="n">
-        <v>5255373.526922405</v>
+        <v>2826909.522713918</v>
       </c>
       <c r="H45" t="n">
-        <v>5318168.333638147</v>
+        <v>2831465.48617224</v>
       </c>
       <c r="I45" t="n">
-        <v>5380963.140353784</v>
+        <v>2835766.411595002</v>
       </c>
       <c r="J45" t="n">
-        <v>5443757.947069556</v>
+        <v>2839827.376034159</v>
       </c>
       <c r="K45" t="n">
-        <v>5506552.753785238</v>
+        <v>2843662.617980029</v>
       </c>
       <c r="L45" t="n">
-        <v>5569347.560500965</v>
+        <v>2847285.563510235</v>
       </c>
       <c r="M45" t="n">
-        <v>5632142.367216498</v>
+        <v>2850708.856384125</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_1</t>
+          <t>прогнозы_GP_Neural2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9389721.351804521</v>
+        <v>1842370.332193299</v>
       </c>
       <c r="C46" t="n">
-        <v>12435865.50610312</v>
+        <v>2918656.53800038</v>
       </c>
       <c r="D46" t="n">
-        <v>12254916.34018945</v>
+        <v>2058781.703213739</v>
       </c>
       <c r="E46" t="n">
-        <v>12340481.50507944</v>
+        <v>2155330.592127827</v>
       </c>
       <c r="F46" t="n">
-        <v>9283349.381551294</v>
+        <v>2074770.233404949</v>
       </c>
       <c r="G46" t="n">
-        <v>11693339.6469857</v>
+        <v>2117814.520750102</v>
       </c>
       <c r="H46" t="n">
-        <v>15147563.52514234</v>
+        <v>1944201.324754632</v>
       </c>
       <c r="I46" t="n">
-        <v>12307604.36302448</v>
+        <v>3425778.883010406</v>
       </c>
       <c r="J46" t="n">
-        <v>9651036.981955448</v>
+        <v>2735758.442358304</v>
       </c>
       <c r="K46" t="n">
-        <v>9060976.126364943</v>
+        <v>1778813.912296508</v>
       </c>
       <c r="L46" t="n">
-        <v>10784079.87099445</v>
+        <v>2159199.260710401</v>
       </c>
       <c r="M46" t="n">
-        <v>14717845.29015053</v>
+        <v>1509372.923719814</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA12dt</t>
+          <t>прогнозы_SARIMA_111</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2253296.009980677</v>
+        <v>1736037.764141814</v>
       </c>
       <c r="C47" t="n">
-        <v>2291907.464650081</v>
+        <v>2088798.297350571</v>
       </c>
       <c r="D47" t="n">
-        <v>2330801.823681637</v>
+        <v>3163730.14504378</v>
       </c>
       <c r="E47" t="n">
-        <v>2369965.358001471</v>
+        <v>3868518.453905058</v>
       </c>
       <c r="F47" t="n">
-        <v>2409385.004794362</v>
+        <v>3229505.617068435</v>
       </c>
       <c r="G47" t="n">
-        <v>2449048.335170818</v>
+        <v>3718099.761404084</v>
       </c>
       <c r="H47" t="n">
-        <v>2488943.523403226</v>
+        <v>3507486.86674157</v>
       </c>
       <c r="I47" t="n">
-        <v>2529059.317655105</v>
+        <v>3766861.672656694</v>
       </c>
       <c r="J47" t="n">
-        <v>2569385.012130668</v>
+        <v>4295805.784424547</v>
       </c>
       <c r="K47" t="n">
-        <v>2609910.420575946</v>
+        <v>3501898.788570073</v>
       </c>
       <c r="L47" t="n">
-        <v>2650625.851066025</v>
+        <v>3572297.173696874</v>
       </c>
       <c r="M47" t="n">
-        <v>2691522.082015684</v>
+        <v>3696856.495643128</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Прогнозы_GP_Combo_3</t>
+          <t>прогнозы_SARIMA_122</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>565780.8190406794</v>
+        <v>3104464.407028554</v>
       </c>
       <c r="C48" t="n">
-        <v>568693.439886516</v>
+        <v>3104476.50740436</v>
       </c>
       <c r="D48" t="n">
-        <v>571427.5488934768</v>
+        <v>3104488.470716033</v>
       </c>
       <c r="E48" t="n">
-        <v>573996.1400064388</v>
+        <v>3104500.296958942</v>
       </c>
       <c r="F48" t="n">
-        <v>576411.1656725099</v>
+        <v>3104511.986128526</v>
       </c>
       <c r="G48" t="n">
-        <v>578683.6220992012</v>
+        <v>3104523.538220278</v>
       </c>
       <c r="H48" t="n">
-        <v>580823.6282069525</v>
+        <v>3104534.953229761</v>
       </c>
       <c r="I48" t="n">
-        <v>582840.4985350152</v>
+        <v>3104546.231152581</v>
       </c>
       <c r="J48" t="n">
-        <v>584742.8104067552</v>
+        <v>3104557.371984407</v>
       </c>
       <c r="K48" t="n">
-        <v>586538.465681972</v>
+        <v>3104568.375720975</v>
       </c>
       <c r="L48" t="n">
-        <v>588234.7474398655</v>
+        <v>3104579.242358072</v>
       </c>
       <c r="M48" t="n">
-        <v>589838.3719371269</v>
+        <v>3104589.971891541</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>прогнозы_GP_Neural1</t>
+          <t>Прогнозы_GP_Combo_2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>521063.7538781578</v>
+        <v>818410.2410204686</v>
       </c>
       <c r="C49" t="n">
-        <v>628627.348685978</v>
+        <v>861872.1826165987</v>
       </c>
       <c r="D49" t="n">
-        <v>846035.0078554461</v>
+        <v>907225.3264557909</v>
       </c>
       <c r="E49" t="n">
-        <v>840804.6430815781</v>
+        <v>872837.8651933712</v>
       </c>
       <c r="F49" t="n">
-        <v>584243.9585675041</v>
+        <v>891902.1689072551</v>
       </c>
       <c r="G49" t="n">
-        <v>663824.6544575285</v>
+        <v>935364.1105033851</v>
       </c>
       <c r="H49" t="n">
-        <v>600403.8371687067</v>
+        <v>980717.2543425773</v>
       </c>
       <c r="I49" t="n">
-        <v>568484.3164107561</v>
+        <v>946329.7930801576</v>
       </c>
       <c r="J49" t="n">
-        <v>746474.0562122752</v>
+        <v>965394.0967940415</v>
       </c>
       <c r="K49" t="n">
-        <v>838459.9243559237</v>
+        <v>1008856.038390171</v>
       </c>
       <c r="L49" t="n">
-        <v>922743.8786744258</v>
+        <v>1054209.182229364</v>
       </c>
       <c r="M49" t="n">
-        <v>877485.1413900082</v>
+        <v>1019821.720966944</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_HA12</t>
+          <t>Прогнозы_ETS_CA4</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1813698.91754505</v>
+        <v>2738909.95740306</v>
       </c>
       <c r="C50" t="n">
-        <v>1889217.055289971</v>
+        <v>2989005.140018986</v>
       </c>
       <c r="D50" t="n">
-        <v>1921125.206462455</v>
+        <v>3364487.494571925</v>
       </c>
       <c r="E50" t="n">
-        <v>2040230.268785466</v>
+        <v>2486745.505880418</v>
       </c>
       <c r="F50" t="n">
-        <v>1972158.994548088</v>
+        <v>3644651.953973207</v>
       </c>
       <c r="G50" t="n">
-        <v>2047677.132293009</v>
+        <v>3151208.875481246</v>
       </c>
       <c r="H50" t="n">
-        <v>2079585.283465493</v>
+        <v>3411711.492987059</v>
       </c>
       <c r="I50" t="n">
-        <v>2198690.345788503</v>
+        <v>3221408.893133035</v>
       </c>
       <c r="J50" t="n">
-        <v>2130619.071551125</v>
+        <v>3301498.04052769</v>
       </c>
       <c r="K50" t="n">
-        <v>2206137.209296046</v>
+        <v>2841447.106408578</v>
       </c>
       <c r="L50" t="n">
-        <v>2238045.36046853</v>
+        <v>2872637.695544071</v>
       </c>
       <c r="M50" t="n">
-        <v>2357150.422791541</v>
+        <v>2371001.293995171</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Прогнозы_ETS_CA4</t>
+          <t>прогнозы_SARIMA_122</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2730538.450508279</v>
+        <v>3401961.694751006</v>
       </c>
       <c r="C51" t="n">
-        <v>2713286.713090614</v>
+        <v>3214929.649857633</v>
       </c>
       <c r="D51" t="n">
-        <v>3010575.392442456</v>
+        <v>3518534.051226021</v>
       </c>
       <c r="E51" t="n">
-        <v>2972666.911901347</v>
+        <v>3346043.05369326</v>
       </c>
       <c r="F51" t="n">
-        <v>2943715.552761354</v>
+        <v>3422243.863700198</v>
       </c>
       <c r="G51" t="n">
-        <v>3578358.426082967</v>
+        <v>3557710.570323985</v>
       </c>
       <c r="H51" t="n">
-        <v>3847637.313881173</v>
+        <v>3662047.62294368</v>
       </c>
       <c r="I51" t="n">
-        <v>3856662.260672125</v>
+        <v>4292494.777102849</v>
       </c>
       <c r="J51" t="n">
-        <v>3802201.334796919</v>
+        <v>4261451.853117041</v>
       </c>
       <c r="K51" t="n">
-        <v>3777290.314206959</v>
+        <v>4444921.226812994</v>
       </c>
       <c r="L51" t="n">
-        <v>3580157.4204157</v>
+        <v>4371578.947281744</v>
       </c>
       <c r="M51" t="n">
-        <v>3850940.988596587</v>
+        <v>4182132.956646822</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
           <t>прогнозы_SARIMA_211</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2596293.605543197</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2496339.738919716</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2769400.306899774</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2751762.796245123</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2980348.463691696</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3109892.289967874</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2968392.54018996</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3408860.220023408</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3288581.100975987</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3670626.095191379</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3111420.550109814</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3381103.905909609</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_CA12</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1507353.719909982</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1803850.088376067</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2928125.60680284</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2153493.995122993</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1984669.868796112</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1731646.656981603</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2934581.618990915</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2436611.191674774</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2622545.649696963</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2182487.066289425</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1232671.942057259</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2018214.587124952</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_122</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1029215.28677249</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1029215.493630613</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1029218.363569444</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1029215.055113863</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1029216.837970125</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1029216.20287384</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1029214.127456786</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1029217.473280255</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1029214.902309472</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1029214.569936638</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1029216.943776358</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1029213.804401266</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Прогнозы_GP_Combo_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3522205.490621023</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3898860.033885397</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4270205.941432828</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3896253.61622186</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3523321.631891448</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3899827.058138473</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4271043.770774701</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3896979.511155591</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3523950.546908484</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3900371.949802918</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4271515.864647385</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3897388.53305695</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_CA4dt</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2476432.304697709</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4121280.310720864</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3508755.473035181</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3757234.640656056</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4652042.414639086</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4837833.431420885</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4964679.444513501</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4697395.157132418</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5625069.446237969</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4884095.220000582</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4755815.580693278</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5451173.854295235</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Прогнозы_ProphetMul</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4512254.242734831</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4545477.271105004</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5638911.7123441</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5710822.601288636</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5670650.718886966</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5334999.483309052</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5516080.784449051</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6119194.470371002</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4810061.086796816</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6462057.939867354</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4295635.407442689</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4815076.769483329</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>прогнозы_STL</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4754119.689991245</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4765179.579984633</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4775570.422842283</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4785337.928964263</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4794524.477911826</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4803169.35710609</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4811308.986442383</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4818977.128933074</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4826205.087682445</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4833021.889621757</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4839454.456525266</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4845527.763897557</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>прогнозы_GP_Neural2</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3351741.973004524</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3396319.76547404</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3441688.021272438</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3487608.465773458</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3532244.075365556</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3577477.811947245</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3623460.87700687</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3668174.940792011</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3713275.814996149</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3759299.380323155</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3804110.045385184</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3849083.930774974</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Прогнозы_GP_Combo_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4153140.795256772</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4286691.28768683</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4347127.089962056</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4453618.7294178</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4332654.830987026</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4466205.323417084</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4526641.12569231</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4633132.765148054</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4512168.86671728</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4645719.359147338</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4706155.161422564</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4812646.800878308</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_CA4</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2439621.067649141</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1843339.341401984</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3205195.275789062</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2393541.198638451</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2776839.634576808</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3228396.906519405</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3154452.450118216</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3109044.536574481</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3347952.555863124</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2841791.559379408</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3239775.451187167</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3211607.795841065</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Прогнозы_ProphetAdd</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4961247.2968417</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5340498.784216833</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6172320.44116688</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5653708.185787804</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5003400.409083306</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5341415.255360465</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6409264.69759001</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5370449.547529201</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6517930.968765219</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5813689.281902251</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5659821.461695127</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6576036.032437889</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_HA12dt</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3125754.543396682</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3154128.348239712</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3182326.789000191</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3210438.738399602</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3238659.997150913</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3267051.229343385</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3295462.974122442</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3323720.42706538</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3351839.506993569</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3380007.191842146</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3408350.387133077</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3436779.014648303</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Прогнозы_GP_Combo_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2073178.401647201</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2119957.762772243</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3165927.012777436</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2521731.483751635</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2562855.052793511</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2355466.477702948</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2448761.806486007</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2279822.615864537</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3682135.69898922</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2965585.335198541</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2069341.382307224</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2660463.485300569</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_112</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1826965.090229988</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1865026.862943411</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1903088.635656118</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1941150.408369303</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1979212.181082249</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2017273.953795671</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2055335.726508856</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2093397.499221802</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2131459.271934271</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2169521.044647455</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2207582.817360163</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2245644.590074301</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Прогнозы_GP_Combo_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5239043.450128355</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5646491.099117291</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5696392.710696578</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5713873.193187858</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5621704.983975795</v>
-      </c>
-      <c r="G66" t="n">
-        <v>6029152.632964731</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6079054.244544018</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6096534.727035298</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6004366.517823235</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6411814.166812171</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6461715.778391458</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6479196.260882738</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_HA4</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>623096.9285994818</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1003674.995950028</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1170081.36535147</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1252146.706817319</v>
-      </c>
-      <c r="F67" t="n">
-        <v>860595.9932872697</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1143035.390195493</v>
-      </c>
-      <c r="H67" t="n">
-        <v>966921.007243</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1104087.247663325</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1644789.548997608</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1718822.678640318</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1051914.623144119</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1580509.210419022</v>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_122</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2602462.373103891</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2766024.899702155</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2925697.538032674</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3243996.998015659</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2686158.864196315</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3505963.073987298</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3056849.177892558</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3259471.238540994</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3174539.793095546</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3160340.244457926</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2835257.567231681</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2908944.214362731</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>прогнозы_STL</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2572780.195751287</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2837967.75383173</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2748447.509632486</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3101992.675646023</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2921820.953434151</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2975289.760731563</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3105792.900224209</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3221253.665394427</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3884847.909183447</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3870842.428682045</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4003537.594783596</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3916217.929449141</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_211</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>46643706.14410131</v>
-      </c>
-      <c r="C70" t="n">
-        <v>52013589.15042687</v>
-      </c>
-      <c r="D70" t="n">
-        <v>56803847.04427604</v>
-      </c>
-      <c r="E70" t="n">
-        <v>62415603.88320601</v>
-      </c>
-      <c r="F70" t="n">
-        <v>67574405.55377066</v>
-      </c>
-      <c r="G70" t="n">
-        <v>73488730.74343167</v>
-      </c>
-      <c r="H70" t="n">
-        <v>80194078.52149227</v>
-      </c>
-      <c r="I70" t="n">
-        <v>86670763.55837405</v>
-      </c>
-      <c r="J70" t="n">
-        <v>92606200.18412848</v>
-      </c>
-      <c r="K70" t="n">
-        <v>99266947.4400015</v>
-      </c>
-      <c r="L70" t="n">
-        <v>103124814.8205898</v>
-      </c>
-      <c r="M70" t="n">
-        <v>110205705.677712</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Прогнозы_Holt-Winters_AdAd</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>7337836.634824204</v>
-      </c>
-      <c r="C71" t="n">
-        <v>33338985.36291249</v>
-      </c>
-      <c r="D71" t="n">
-        <v>29354864.51046412</v>
-      </c>
-      <c r="E71" t="n">
-        <v>35023176.83494118</v>
-      </c>
-      <c r="F71" t="n">
-        <v>37225224.17128379</v>
-      </c>
-      <c r="G71" t="n">
-        <v>41756332.47503383</v>
-      </c>
-      <c r="H71" t="n">
-        <v>36950959.61302334</v>
-      </c>
-      <c r="I71" t="n">
-        <v>40819639.30216996</v>
-      </c>
-      <c r="J71" t="n">
-        <v>45826538.9831491</v>
-      </c>
-      <c r="K71" t="n">
-        <v>45911749.11509533</v>
-      </c>
-      <c r="L71" t="n">
-        <v>54840555.39478011</v>
-      </c>
-      <c r="M71" t="n">
-        <v>100863711.7878631</v>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Прогнозы_Holt-Winters_MulMul</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-4624556.553556259</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2818543.794131059</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3700854.1297192</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-3321579.586327983</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5522618.995248588</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-7143836.747566067</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-1295600.193130099</v>
-      </c>
-      <c r="I72" t="n">
-        <v>-5984194.593752062</v>
-      </c>
-      <c r="J72" t="n">
-        <v>-8666672.846925287</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-11724664.34420165</v>
-      </c>
-      <c r="L72" t="n">
-        <v>-7026534.959486041</v>
-      </c>
-      <c r="M72" t="n">
-        <v>-11378422.74577449</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_122</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11577683.1827072</v>
-      </c>
-      <c r="C73" t="n">
-        <v>13342626.1079107</v>
-      </c>
-      <c r="D73" t="n">
-        <v>14611600.01106987</v>
-      </c>
-      <c r="E73" t="n">
-        <v>13757244.83456037</v>
-      </c>
-      <c r="F73" t="n">
-        <v>14523685.53189771</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13512312.40213529</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13836063.34028121</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13818335.13347647</v>
-      </c>
-      <c r="J73" t="n">
-        <v>13624717.39591728</v>
-      </c>
-      <c r="K73" t="n">
-        <v>14422194.21259905</v>
-      </c>
-      <c r="L73" t="n">
-        <v>13388675.3788451</v>
-      </c>
-      <c r="M73" t="n">
-        <v>15580616.6070488</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_CA12</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>12471695.75114598</v>
-      </c>
-      <c r="C74" t="n">
-        <v>18889163.13020472</v>
-      </c>
-      <c r="D74" t="n">
-        <v>20939702.55522815</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20382907.33123189</v>
-      </c>
-      <c r="F74" t="n">
-        <v>18606317.20123703</v>
-      </c>
-      <c r="G74" t="n">
-        <v>18432179.3891674</v>
-      </c>
-      <c r="H74" t="n">
-        <v>18040719.49287168</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15012283.96687662</v>
-      </c>
-      <c r="J74" t="n">
-        <v>17578627.6474508</v>
-      </c>
-      <c r="K74" t="n">
-        <v>17399019.91678231</v>
-      </c>
-      <c r="L74" t="n">
-        <v>18953956.44098961</v>
-      </c>
-      <c r="M74" t="n">
-        <v>24476205.46959988</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_HA12dt</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>12375571.69906557</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9282709.359614309</v>
-      </c>
-      <c r="D75" t="n">
-        <v>17353332.30922359</v>
-      </c>
-      <c r="E75" t="n">
-        <v>16072002.82684069</v>
-      </c>
-      <c r="F75" t="n">
-        <v>21377044.85256357</v>
-      </c>
-      <c r="G75" t="n">
-        <v>23936000.51296065</v>
-      </c>
-      <c r="H75" t="n">
-        <v>23217764.89115443</v>
-      </c>
-      <c r="I75" t="n">
-        <v>26113098.54598917</v>
-      </c>
-      <c r="J75" t="n">
-        <v>14555922.68645116</v>
-      </c>
-      <c r="K75" t="n">
-        <v>28871765.48909864</v>
-      </c>
-      <c r="L75" t="n">
-        <v>27470267.31005196</v>
-      </c>
-      <c r="M75" t="n">
-        <v>27576726.08248433</v>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>прогнозы_SARIMA_122</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>20781493.70158208</v>
-      </c>
-      <c r="C76" t="n">
-        <v>21367644.76211465</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21954556.46694511</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22538715.40862628</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23123354.23717738</v>
-      </c>
-      <c r="G76" t="n">
-        <v>23709505.29770995</v>
-      </c>
-      <c r="H76" t="n">
-        <v>24296417.00254041</v>
-      </c>
-      <c r="I76" t="n">
-        <v>24880575.94422158</v>
-      </c>
-      <c r="J76" t="n">
-        <v>25465214.77277268</v>
-      </c>
-      <c r="K76" t="n">
-        <v>26051365.83330525</v>
-      </c>
-      <c r="L76" t="n">
-        <v>26638277.5381357</v>
-      </c>
-      <c r="M76" t="n">
-        <v>27222436.47981688</v>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Прогнозы_ETS_HA4</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>15385897.681293</v>
-      </c>
-      <c r="C77" t="n">
-        <v>16593493.6320437</v>
-      </c>
-      <c r="D77" t="n">
-        <v>15985245.42264647</v>
-      </c>
-      <c r="E77" t="n">
-        <v>16498699.37465373</v>
-      </c>
-      <c r="F77" t="n">
-        <v>15797952.43505046</v>
-      </c>
-      <c r="G77" t="n">
-        <v>18871559.82467478</v>
-      </c>
-      <c r="H77" t="n">
-        <v>17986474.7159125</v>
-      </c>
-      <c r="I77" t="n">
-        <v>16794558.33337926</v>
-      </c>
-      <c r="J77" t="n">
-        <v>16582493.00611709</v>
-      </c>
-      <c r="K77" t="n">
-        <v>20042515.3046392</v>
-      </c>
-      <c r="L77" t="n">
-        <v>19598820.13466438</v>
-      </c>
-      <c r="M77" t="n">
-        <v>20618394.04374025</v>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>прогнозы_STL</t>
         </is>
       </c>
     </row>
